--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam23-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam23-Itga5.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03926266666666667</v>
+        <v>0.022792</v>
       </c>
       <c r="H2">
-        <v>0.117788</v>
+        <v>0.06837600000000001</v>
       </c>
       <c r="I2">
-        <v>0.005313231574131687</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="J2">
-        <v>0.005313231574131686</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N2">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q2">
-        <v>1.127787642862222</v>
+        <v>0.2358428106906667</v>
       </c>
       <c r="R2">
-        <v>10.15008878576</v>
+        <v>2.122585296216</v>
       </c>
       <c r="S2">
-        <v>0.002249228595395911</v>
+        <v>0.0004407465051969409</v>
       </c>
       <c r="T2">
-        <v>0.002249228595395911</v>
+        <v>0.000440746505196941</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03926266666666667</v>
+        <v>0.022792</v>
       </c>
       <c r="H3">
-        <v>0.117788</v>
+        <v>0.06837600000000001</v>
       </c>
       <c r="I3">
-        <v>0.005313231574131687</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="J3">
-        <v>0.005313231574131686</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>91.709587</v>
       </c>
       <c r="O3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q3">
-        <v>1.200254314839556</v>
+        <v>0.6967483023013334</v>
       </c>
       <c r="R3">
-        <v>10.802288833556</v>
+        <v>6.270734720712</v>
       </c>
       <c r="S3">
-        <v>0.002393754128953745</v>
+        <v>0.001302093450895967</v>
       </c>
       <c r="T3">
-        <v>0.002393754128953744</v>
+        <v>0.001302093450895967</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03926266666666667</v>
+        <v>0.022792</v>
       </c>
       <c r="H4">
-        <v>0.117788</v>
+        <v>0.06837600000000001</v>
       </c>
       <c r="I4">
-        <v>0.005313231574131687</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="J4">
-        <v>0.005313231574131686</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N4">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q4">
-        <v>0.3360700517386667</v>
+        <v>0.09283315313066667</v>
       </c>
       <c r="R4">
-        <v>3.024630465648</v>
+        <v>0.835498378176</v>
       </c>
       <c r="S4">
-        <v>0.0006702488497820311</v>
+        <v>0.0001734879587337491</v>
       </c>
       <c r="T4">
-        <v>0.000670248849782031</v>
+        <v>0.0001734879587337492</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>13.206284</v>
       </c>
       <c r="I5">
-        <v>0.5957147173375057</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="J5">
-        <v>0.5957147173375056</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N5">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q5">
-        <v>126.4465302350755</v>
+        <v>45.55117493476044</v>
       </c>
       <c r="R5">
-        <v>1138.01877211568</v>
+        <v>409.960574412844</v>
       </c>
       <c r="S5">
-        <v>0.2521814752922157</v>
+        <v>0.0851267041014139</v>
       </c>
       <c r="T5">
-        <v>0.2521814752922156</v>
+        <v>0.08512670410141393</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>13.206284</v>
       </c>
       <c r="I6">
-        <v>0.5957147173375057</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="J6">
-        <v>0.5957147173375056</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>91.709587</v>
       </c>
       <c r="O6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q6">
         <v>134.5714279383009</v>
@@ -818,10 +818,10 @@
         <v>1211.142851444708</v>
       </c>
       <c r="S6">
-        <v>0.2683855473659097</v>
+        <v>0.2514890591299899</v>
       </c>
       <c r="T6">
-        <v>0.2683855473659097</v>
+        <v>0.25148905912999</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>13.206284</v>
       </c>
       <c r="I7">
-        <v>0.5957147173375057</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="J7">
-        <v>0.5957147173375056</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N7">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q7">
-        <v>37.67987016636266</v>
+        <v>17.92998983355378</v>
       </c>
       <c r="R7">
-        <v>339.118831497264</v>
+        <v>161.369908501984</v>
       </c>
       <c r="S7">
-        <v>0.07514769467938026</v>
+        <v>0.03350782809199385</v>
       </c>
       <c r="T7">
-        <v>0.07514769467938025</v>
+        <v>0.03350782809199385</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.948244666666667</v>
+        <v>7.468693666666667</v>
       </c>
       <c r="H8">
-        <v>8.844734000000001</v>
+        <v>22.406081</v>
       </c>
       <c r="I8">
-        <v>0.3989720510883627</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="J8">
-        <v>0.3989720510883626</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N8">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q8">
-        <v>84.68589083440889</v>
+        <v>77.28315665734678</v>
       </c>
       <c r="R8">
-        <v>762.17301750968</v>
+        <v>695.548409916121</v>
       </c>
       <c r="S8">
-        <v>0.1688952069096212</v>
+        <v>0.1444278971555747</v>
       </c>
       <c r="T8">
-        <v>0.1688952069096212</v>
+        <v>0.1444278971555747</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.948244666666667</v>
+        <v>7.468693666666667</v>
       </c>
       <c r="H9">
-        <v>8.844734000000001</v>
+        <v>22.406081</v>
       </c>
       <c r="I9">
-        <v>0.3989720510883627</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="J9">
-        <v>0.3989720510883626</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>91.709587</v>
       </c>
       <c r="O9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q9">
-        <v>90.12743358498423</v>
+        <v>228.3169371998385</v>
       </c>
       <c r="R9">
-        <v>811.1469022648581</v>
+        <v>2054.852434798547</v>
       </c>
       <c r="S9">
-        <v>0.1797476698135428</v>
+        <v>0.4266820423883315</v>
       </c>
       <c r="T9">
-        <v>0.1797476698135427</v>
+        <v>0.4266820423883315</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.948244666666667</v>
+        <v>7.468693666666667</v>
       </c>
       <c r="H10">
-        <v>8.844734000000001</v>
+        <v>22.406081</v>
       </c>
       <c r="I10">
-        <v>0.3989720510883627</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="J10">
-        <v>0.3989720510883626</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N10">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q10">
-        <v>25.23559456816267</v>
+        <v>30.42042746769511</v>
       </c>
       <c r="R10">
-        <v>227.120351113464</v>
+        <v>273.783847209256</v>
       </c>
       <c r="S10">
-        <v>0.0503291743651987</v>
+        <v>0.05685014121786942</v>
       </c>
       <c r="T10">
-        <v>0.05032917436519869</v>
+        <v>0.05685014121786943</v>
       </c>
     </row>
   </sheetData>
